--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/15/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.03889999999999</v>
+        <v>-12.34649999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.40700000000002</v>
+        <v>-22.40720000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.6811</v>
+        <v>-21.61299999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -597,13 +597,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.4334</v>
+        <v>-21.6118</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.009</v>
+        <v>-10.4596</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -645,7 +645,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.6128</v>
+        <v>-14.6905</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.5684</v>
+        <v>-13.81759999999999</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.33740000000001</v>
+        <v>-22.29200000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.53120000000001</v>
+        <v>-12.38940000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.9034</v>
+        <v>-13.1208</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.80909999999999</v>
+        <v>-13.8309</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -947,13 +947,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.61399999999999</v>
+        <v>-20.23239999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.8427</v>
+        <v>-12.8937</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.4936</v>
+        <v>-12.80819999999999</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.1078</v>
+        <v>-22.15939999999999</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1345,7 +1345,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.73249999999999</v>
+        <v>-12.88059999999999</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.46929999999999</v>
+        <v>-21.46739999999999</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-10.99980000000001</v>
+        <v>-10.96370000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.38709999999999</v>
+        <v>-20.30409999999998</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.61229999999998</v>
+        <v>-19.67309999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.01360000000001</v>
+        <v>-21.99880000000002</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.79270000000001</v>
+        <v>-21.82560000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1611,7 +1611,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.3066</v>
+        <v>-12.87589999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-12.2086</v>
+        <v>-12.3768</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.3444</v>
+        <v>-10.316</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1765,7 +1765,7 @@
         <v>7.55</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.6586</v>
+        <v>-12.719</v>
       </c>
       <c r="D95" t="n">
         <v>-6.1</v>
@@ -1807,7 +1807,7 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.57050000000001</v>
+        <v>-12.5802</v>
       </c>
       <c r="D98" t="n">
         <v>-8.529999999999999</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.7557</v>
+        <v>-11.93870000000001</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.812</v>
+        <v>-12.9348</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
